--- a/ADMON_DEL_PROYECTO/BITACORAS/2018/SEP/BITACORA_EQUIPO3_SEPTIEMBRE.xlsx
+++ b/ADMON_DEL_PROYECTO/BITACORAS/2018/SEP/BITACORA_EQUIPO3_SEPTIEMBRE.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jesus Alacio\Documents\GitHub\DINORIV\ADMON_DEL_PROYECTO\BITACORAS\2018\SEP\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Uriel\Documents\GitHub\DINORIV\ADMON_DEL_PROYECTO\BITACORAS\2018\SEP\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -719,7 +719,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="87">
+  <cellXfs count="86">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -783,9 +783,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -807,6 +804,9 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -843,15 +843,45 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -918,41 +948,8 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1559,8 +1556,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:K20"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A7" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14:H14"/>
+    <sheetView showGridLines="0" topLeftCell="A5" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1616,13 +1613,13 @@
       <c r="C6" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="D6" s="52" t="s">
+      <c r="D6" s="51" t="s">
         <v>44</v>
       </c>
-      <c r="E6" s="52"/>
-      <c r="F6" s="52"/>
-      <c r="G6" s="52"/>
-      <c r="H6" s="52"/>
+      <c r="E6" s="51"/>
+      <c r="F6" s="51"/>
+      <c r="G6" s="51"/>
+      <c r="H6" s="51"/>
     </row>
     <row r="7" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C7" s="8" t="s">
@@ -1694,22 +1691,22 @@
       <c r="H12" s="39"/>
     </row>
     <row r="13" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="C13" s="27"/>
-      <c r="D13" s="50"/>
-      <c r="E13" s="50"/>
-      <c r="F13" s="50"/>
-      <c r="G13" s="50"/>
-      <c r="H13" s="50"/>
+      <c r="C13" s="85"/>
+      <c r="D13" s="85"/>
+      <c r="E13" s="85"/>
+      <c r="F13" s="85"/>
+      <c r="G13" s="85"/>
+      <c r="H13" s="85"/>
     </row>
     <row r="14" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C14" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="D14" s="51"/>
-      <c r="E14" s="51"/>
-      <c r="F14" s="51"/>
-      <c r="G14" s="51"/>
-      <c r="H14" s="51"/>
+      <c r="D14" s="50"/>
+      <c r="E14" s="50"/>
+      <c r="F14" s="50"/>
+      <c r="G14" s="50"/>
+      <c r="H14" s="50"/>
     </row>
     <row r="15" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C15" s="5">
@@ -1783,6 +1780,7 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="C13:H13"/>
     <mergeCell ref="D20:H20"/>
     <mergeCell ref="D12:H12"/>
     <mergeCell ref="D19:H19"/>
@@ -1790,7 +1788,6 @@
     <mergeCell ref="B2:K4"/>
     <mergeCell ref="D11:H11"/>
     <mergeCell ref="D18:H18"/>
-    <mergeCell ref="D13:H13"/>
     <mergeCell ref="D14:H14"/>
     <mergeCell ref="D16:H16"/>
     <mergeCell ref="D17:H17"/>
@@ -1810,7 +1807,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:W34"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A7" zoomScaleNormal="100" zoomScaleSheetLayoutView="62" zoomScalePageLayoutView="57" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A8" zoomScaleNormal="100" zoomScaleSheetLayoutView="62" zoomScalePageLayoutView="57" workbookViewId="0">
       <selection activeCell="E19" sqref="E19:E20"/>
     </sheetView>
   </sheetViews>
@@ -1828,230 +1825,230 @@
   <sheetData>
     <row r="1" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:23" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="55" t="s">
+      <c r="B2" s="65" t="s">
         <v>39</v>
       </c>
-      <c r="C2" s="56"/>
-      <c r="D2" s="56"/>
-      <c r="E2" s="56"/>
-      <c r="F2" s="56"/>
-      <c r="G2" s="56"/>
-      <c r="H2" s="56"/>
-      <c r="I2" s="56"/>
-      <c r="J2" s="56"/>
-      <c r="K2" s="56"/>
-      <c r="L2" s="56"/>
-      <c r="M2" s="56"/>
-      <c r="N2" s="56"/>
-      <c r="O2" s="56"/>
-      <c r="P2" s="56"/>
-      <c r="Q2" s="56"/>
-      <c r="R2" s="56"/>
-      <c r="S2" s="56"/>
-      <c r="T2" s="56"/>
-      <c r="U2" s="57"/>
+      <c r="C2" s="66"/>
+      <c r="D2" s="66"/>
+      <c r="E2" s="66"/>
+      <c r="F2" s="66"/>
+      <c r="G2" s="66"/>
+      <c r="H2" s="66"/>
+      <c r="I2" s="66"/>
+      <c r="J2" s="66"/>
+      <c r="K2" s="66"/>
+      <c r="L2" s="66"/>
+      <c r="M2" s="66"/>
+      <c r="N2" s="66"/>
+      <c r="O2" s="66"/>
+      <c r="P2" s="66"/>
+      <c r="Q2" s="66"/>
+      <c r="R2" s="66"/>
+      <c r="S2" s="66"/>
+      <c r="T2" s="66"/>
+      <c r="U2" s="67"/>
     </row>
     <row r="3" spans="2:23" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="58"/>
-      <c r="C3" s="59"/>
-      <c r="D3" s="59"/>
-      <c r="E3" s="59"/>
-      <c r="F3" s="59"/>
-      <c r="G3" s="59"/>
-      <c r="H3" s="59"/>
-      <c r="I3" s="59"/>
-      <c r="J3" s="59"/>
-      <c r="K3" s="59"/>
-      <c r="L3" s="59"/>
-      <c r="M3" s="59"/>
-      <c r="N3" s="59"/>
-      <c r="O3" s="59"/>
-      <c r="P3" s="59"/>
-      <c r="Q3" s="59"/>
-      <c r="R3" s="59"/>
-      <c r="S3" s="59"/>
-      <c r="T3" s="59"/>
-      <c r="U3" s="60"/>
+      <c r="B3" s="68"/>
+      <c r="C3" s="69"/>
+      <c r="D3" s="69"/>
+      <c r="E3" s="69"/>
+      <c r="F3" s="69"/>
+      <c r="G3" s="69"/>
+      <c r="H3" s="69"/>
+      <c r="I3" s="69"/>
+      <c r="J3" s="69"/>
+      <c r="K3" s="69"/>
+      <c r="L3" s="69"/>
+      <c r="M3" s="69"/>
+      <c r="N3" s="69"/>
+      <c r="O3" s="69"/>
+      <c r="P3" s="69"/>
+      <c r="Q3" s="69"/>
+      <c r="R3" s="69"/>
+      <c r="S3" s="69"/>
+      <c r="T3" s="69"/>
+      <c r="U3" s="70"/>
     </row>
     <row r="4" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="61"/>
-      <c r="C4" s="62"/>
-      <c r="D4" s="62"/>
-      <c r="E4" s="62"/>
-      <c r="F4" s="62"/>
-      <c r="G4" s="62"/>
-      <c r="H4" s="62"/>
-      <c r="I4" s="62"/>
-      <c r="J4" s="62"/>
-      <c r="K4" s="62"/>
-      <c r="L4" s="62"/>
-      <c r="M4" s="62"/>
-      <c r="N4" s="62"/>
-      <c r="O4" s="62"/>
-      <c r="P4" s="62"/>
-      <c r="Q4" s="62"/>
-      <c r="R4" s="62"/>
-      <c r="S4" s="62"/>
-      <c r="T4" s="62"/>
-      <c r="U4" s="63"/>
+      <c r="B4" s="71"/>
+      <c r="C4" s="72"/>
+      <c r="D4" s="72"/>
+      <c r="E4" s="72"/>
+      <c r="F4" s="72"/>
+      <c r="G4" s="72"/>
+      <c r="H4" s="72"/>
+      <c r="I4" s="72"/>
+      <c r="J4" s="72"/>
+      <c r="K4" s="72"/>
+      <c r="L4" s="72"/>
+      <c r="M4" s="72"/>
+      <c r="N4" s="72"/>
+      <c r="O4" s="72"/>
+      <c r="P4" s="72"/>
+      <c r="Q4" s="72"/>
+      <c r="R4" s="72"/>
+      <c r="S4" s="72"/>
+      <c r="T4" s="72"/>
+      <c r="U4" s="73"/>
     </row>
     <row r="6" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B6" s="66" t="s">
+      <c r="B6" s="76" t="s">
         <v>29</v>
       </c>
-      <c r="C6" s="66"/>
-      <c r="D6" s="72" t="s">
+      <c r="C6" s="76"/>
+      <c r="D6" s="82" t="s">
         <v>47</v>
       </c>
-      <c r="E6" s="72"/>
-      <c r="F6" s="72"/>
-      <c r="G6" s="72"/>
-      <c r="H6" s="72"/>
-      <c r="I6" s="72"/>
-      <c r="J6" s="72"/>
-      <c r="K6" s="72"/>
-      <c r="L6" s="72"/>
-      <c r="M6" s="72"/>
+      <c r="E6" s="82"/>
+      <c r="F6" s="82"/>
+      <c r="G6" s="82"/>
+      <c r="H6" s="82"/>
+      <c r="I6" s="82"/>
+      <c r="J6" s="82"/>
+      <c r="K6" s="82"/>
+      <c r="L6" s="82"/>
+      <c r="M6" s="82"/>
       <c r="O6" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="P6" s="30"/>
+      <c r="P6" s="29"/>
       <c r="Q6" s="2"/>
-      <c r="R6" s="29"/>
+      <c r="R6" s="28"/>
       <c r="S6" s="1"/>
-      <c r="T6" s="74">
+      <c r="T6" s="84">
         <v>43374</v>
       </c>
-      <c r="U6" s="74"/>
-      <c r="V6" s="74"/>
-      <c r="W6" s="74"/>
+      <c r="U6" s="84"/>
+      <c r="V6" s="84"/>
+      <c r="W6" s="84"/>
     </row>
     <row r="7" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B7" s="66" t="s">
+      <c r="B7" s="76" t="s">
         <v>30</v>
       </c>
-      <c r="C7" s="66"/>
-      <c r="D7" s="73" t="s">
+      <c r="C7" s="76"/>
+      <c r="D7" s="83" t="s">
         <v>52</v>
       </c>
-      <c r="E7" s="73"/>
-      <c r="F7" s="73"/>
-      <c r="G7" s="73"/>
-      <c r="H7" s="73"/>
-      <c r="I7" s="73"/>
-      <c r="J7" s="73"/>
-      <c r="K7" s="73"/>
-      <c r="L7" s="73"/>
-      <c r="M7" s="73"/>
-      <c r="N7" s="73"/>
-      <c r="O7" s="73"/>
-      <c r="P7" s="73"/>
-      <c r="Q7" s="73"/>
-      <c r="R7" s="73"/>
-      <c r="S7" s="73"/>
+      <c r="E7" s="83"/>
+      <c r="F7" s="83"/>
+      <c r="G7" s="83"/>
+      <c r="H7" s="83"/>
+      <c r="I7" s="83"/>
+      <c r="J7" s="83"/>
+      <c r="K7" s="83"/>
+      <c r="L7" s="83"/>
+      <c r="M7" s="83"/>
+      <c r="N7" s="83"/>
+      <c r="O7" s="83"/>
+      <c r="P7" s="83"/>
+      <c r="Q7" s="83"/>
+      <c r="R7" s="83"/>
+      <c r="S7" s="83"/>
     </row>
     <row r="8" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="J8" s="31"/>
+      <c r="J8" s="30"/>
     </row>
     <row r="9" spans="2:23" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B9" s="65" t="s">
+      <c r="B9" s="75" t="s">
         <v>32</v>
       </c>
-      <c r="C9" s="67" t="s">
+      <c r="C9" s="77" t="s">
         <v>9</v>
       </c>
-      <c r="D9" s="67"/>
-      <c r="E9" s="64" t="s">
+      <c r="D9" s="77"/>
+      <c r="E9" s="74" t="s">
         <v>33</v>
       </c>
-      <c r="F9" s="53" t="s">
+      <c r="F9" s="63" t="s">
         <v>34</v>
       </c>
-      <c r="G9" s="68" t="s">
+      <c r="G9" s="78" t="s">
         <v>35</v>
       </c>
-      <c r="H9" s="69"/>
-      <c r="I9" s="69"/>
-      <c r="J9" s="70"/>
-      <c r="K9" s="69"/>
-      <c r="L9" s="69"/>
-      <c r="M9" s="69"/>
-      <c r="N9" s="69"/>
-      <c r="O9" s="69"/>
-      <c r="P9" s="69"/>
-      <c r="Q9" s="69"/>
-      <c r="R9" s="69"/>
-      <c r="S9" s="69"/>
-      <c r="T9" s="69"/>
-      <c r="U9" s="71"/>
+      <c r="H9" s="79"/>
+      <c r="I9" s="79"/>
+      <c r="J9" s="80"/>
+      <c r="K9" s="79"/>
+      <c r="L9" s="79"/>
+      <c r="M9" s="79"/>
+      <c r="N9" s="79"/>
+      <c r="O9" s="79"/>
+      <c r="P9" s="79"/>
+      <c r="Q9" s="79"/>
+      <c r="R9" s="79"/>
+      <c r="S9" s="79"/>
+      <c r="T9" s="79"/>
+      <c r="U9" s="81"/>
     </row>
     <row r="10" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B10" s="65"/>
-      <c r="C10" s="67"/>
-      <c r="D10" s="67"/>
-      <c r="E10" s="64"/>
-      <c r="F10" s="54"/>
-      <c r="G10" s="32">
+      <c r="B10" s="75"/>
+      <c r="C10" s="77"/>
+      <c r="D10" s="77"/>
+      <c r="E10" s="74"/>
+      <c r="F10" s="64"/>
+      <c r="G10" s="31">
         <v>1</v>
       </c>
-      <c r="H10" s="32">
+      <c r="H10" s="31">
         <v>2</v>
       </c>
-      <c r="I10" s="32">
+      <c r="I10" s="31">
         <v>3</v>
       </c>
-      <c r="J10" s="32">
+      <c r="J10" s="31">
         <v>4</v>
       </c>
-      <c r="K10" s="32">
+      <c r="K10" s="31">
         <v>5</v>
       </c>
-      <c r="L10" s="32">
+      <c r="L10" s="31">
         <v>6</v>
       </c>
-      <c r="M10" s="32">
+      <c r="M10" s="31">
         <v>7</v>
       </c>
-      <c r="N10" s="32">
+      <c r="N10" s="31">
         <v>8</v>
       </c>
-      <c r="O10" s="32">
+      <c r="O10" s="31">
         <v>9</v>
       </c>
-      <c r="P10" s="32">
+      <c r="P10" s="31">
         <v>10</v>
       </c>
-      <c r="Q10" s="32">
+      <c r="Q10" s="31">
         <v>11</v>
       </c>
-      <c r="R10" s="32">
+      <c r="R10" s="31">
         <v>12</v>
       </c>
-      <c r="S10" s="32">
+      <c r="S10" s="31">
         <v>13</v>
       </c>
-      <c r="T10" s="32">
+      <c r="T10" s="31">
         <v>14</v>
       </c>
-      <c r="U10" s="32">
+      <c r="U10" s="31">
         <v>15</v>
       </c>
     </row>
     <row r="11" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B11" s="81">
+      <c r="B11" s="52">
         <v>1</v>
       </c>
-      <c r="C11" s="82" t="s">
+      <c r="C11" s="53" t="s">
         <v>16</v>
       </c>
-      <c r="D11" s="83"/>
-      <c r="E11" s="75" t="s">
+      <c r="D11" s="54"/>
+      <c r="E11" s="57" t="s">
         <v>54</v>
       </c>
-      <c r="F11" s="33" t="s">
+      <c r="F11" s="32" t="s">
         <v>37</v>
       </c>
-      <c r="G11" s="35"/>
+      <c r="G11" s="34"/>
       <c r="H11" s="19"/>
       <c r="I11" s="19"/>
       <c r="J11" s="19"/>
@@ -2068,11 +2065,11 @@
       <c r="U11" s="4"/>
     </row>
     <row r="12" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B12" s="81"/>
-      <c r="C12" s="84"/>
-      <c r="D12" s="85"/>
-      <c r="E12" s="76"/>
-      <c r="F12" s="33" t="s">
+      <c r="B12" s="52"/>
+      <c r="C12" s="55"/>
+      <c r="D12" s="56"/>
+      <c r="E12" s="58"/>
+      <c r="F12" s="32" t="s">
         <v>36</v>
       </c>
       <c r="G12" s="19"/>
@@ -2092,22 +2089,22 @@
       <c r="U12" s="4"/>
     </row>
     <row r="13" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B13" s="81">
+      <c r="B13" s="52">
         <v>2</v>
       </c>
-      <c r="C13" s="77" t="s">
+      <c r="C13" s="59" t="s">
         <v>63</v>
       </c>
-      <c r="D13" s="78"/>
-      <c r="E13" s="75" t="s">
+      <c r="D13" s="60"/>
+      <c r="E13" s="57" t="s">
         <v>61</v>
       </c>
-      <c r="F13" s="33" t="s">
+      <c r="F13" s="32" t="s">
         <v>37</v>
       </c>
       <c r="G13" s="19"/>
-      <c r="H13" s="35"/>
-      <c r="I13" s="28"/>
+      <c r="H13" s="34"/>
+      <c r="I13" s="27"/>
       <c r="J13" s="19"/>
       <c r="K13" s="19"/>
       <c r="L13" s="19"/>
@@ -2122,11 +2119,11 @@
       <c r="U13" s="4"/>
     </row>
     <row r="14" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B14" s="81"/>
-      <c r="C14" s="79"/>
-      <c r="D14" s="80"/>
-      <c r="E14" s="76"/>
-      <c r="F14" s="33" t="s">
+      <c r="B14" s="52"/>
+      <c r="C14" s="61"/>
+      <c r="D14" s="62"/>
+      <c r="E14" s="58"/>
+      <c r="F14" s="32" t="s">
         <v>36</v>
       </c>
       <c r="G14" s="19"/>
@@ -2146,22 +2143,22 @@
       <c r="U14" s="4"/>
     </row>
     <row r="15" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B15" s="81">
+      <c r="B15" s="52">
         <v>3</v>
       </c>
-      <c r="C15" s="77" t="s">
+      <c r="C15" s="59" t="s">
         <v>63</v>
       </c>
-      <c r="D15" s="78"/>
-      <c r="E15" s="75" t="s">
+      <c r="D15" s="60"/>
+      <c r="E15" s="57" t="s">
         <v>64</v>
       </c>
-      <c r="F15" s="33" t="s">
+      <c r="F15" s="32" t="s">
         <v>37</v>
       </c>
       <c r="G15" s="19"/>
       <c r="H15" s="19"/>
-      <c r="I15" s="35"/>
+      <c r="I15" s="34"/>
       <c r="J15" s="19"/>
       <c r="K15" s="19"/>
       <c r="L15" s="19"/>
@@ -2176,11 +2173,11 @@
       <c r="U15" s="4"/>
     </row>
     <row r="16" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B16" s="81"/>
-      <c r="C16" s="79"/>
-      <c r="D16" s="80"/>
-      <c r="E16" s="76"/>
-      <c r="F16" s="33" t="s">
+      <c r="B16" s="52"/>
+      <c r="C16" s="61"/>
+      <c r="D16" s="62"/>
+      <c r="E16" s="58"/>
+      <c r="F16" s="32" t="s">
         <v>36</v>
       </c>
       <c r="G16" s="19"/>
@@ -2200,23 +2197,23 @@
       <c r="U16" s="4"/>
     </row>
     <row r="17" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B17" s="81">
+      <c r="B17" s="52">
         <v>4</v>
       </c>
-      <c r="C17" s="77" t="s">
+      <c r="C17" s="59" t="s">
         <v>63</v>
       </c>
-      <c r="D17" s="78"/>
-      <c r="E17" s="75" t="s">
+      <c r="D17" s="60"/>
+      <c r="E17" s="57" t="s">
         <v>59</v>
       </c>
-      <c r="F17" s="33" t="s">
+      <c r="F17" s="32" t="s">
         <v>37</v>
       </c>
       <c r="G17" s="19"/>
       <c r="H17" s="19"/>
       <c r="I17" s="21"/>
-      <c r="J17" s="36"/>
+      <c r="J17" s="35"/>
       <c r="K17" s="19"/>
       <c r="L17" s="19"/>
       <c r="M17" s="19"/>
@@ -2230,11 +2227,11 @@
       <c r="U17" s="4"/>
     </row>
     <row r="18" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B18" s="81"/>
-      <c r="C18" s="79"/>
-      <c r="D18" s="80"/>
-      <c r="E18" s="76"/>
-      <c r="F18" s="33" t="s">
+      <c r="B18" s="52"/>
+      <c r="C18" s="61"/>
+      <c r="D18" s="62"/>
+      <c r="E18" s="58"/>
+      <c r="F18" s="32" t="s">
         <v>36</v>
       </c>
       <c r="G18" s="19"/>
@@ -2254,24 +2251,24 @@
       <c r="U18" s="4"/>
     </row>
     <row r="19" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B19" s="81">
+      <c r="B19" s="52">
         <v>5</v>
       </c>
-      <c r="C19" s="82" t="s">
+      <c r="C19" s="53" t="s">
         <v>18</v>
       </c>
-      <c r="D19" s="83"/>
-      <c r="E19" s="75" t="s">
+      <c r="D19" s="54"/>
+      <c r="E19" s="57" t="s">
         <v>60</v>
       </c>
-      <c r="F19" s="33" t="s">
+      <c r="F19" s="32" t="s">
         <v>37</v>
       </c>
       <c r="G19" s="19"/>
       <c r="H19" s="19"/>
       <c r="I19" s="19"/>
       <c r="J19" s="21"/>
-      <c r="K19" s="35"/>
+      <c r="K19" s="34"/>
       <c r="L19" s="19"/>
       <c r="M19" s="19"/>
       <c r="N19" s="19"/>
@@ -2284,11 +2281,11 @@
       <c r="U19" s="4"/>
     </row>
     <row r="20" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B20" s="81"/>
-      <c r="C20" s="84"/>
-      <c r="D20" s="85"/>
-      <c r="E20" s="76"/>
-      <c r="F20" s="33" t="s">
+      <c r="B20" s="52"/>
+      <c r="C20" s="55"/>
+      <c r="D20" s="56"/>
+      <c r="E20" s="58"/>
+      <c r="F20" s="32" t="s">
         <v>36</v>
       </c>
       <c r="G20" s="19"/>
@@ -2308,13 +2305,13 @@
       <c r="U20" s="4"/>
     </row>
     <row r="21" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B21" s="81">
+      <c r="B21" s="52">
         <v>6</v>
       </c>
-      <c r="C21" s="82"/>
-      <c r="D21" s="83"/>
-      <c r="E21" s="75"/>
-      <c r="F21" s="33" t="s">
+      <c r="C21" s="53"/>
+      <c r="D21" s="54"/>
+      <c r="E21" s="57"/>
+      <c r="F21" s="32" t="s">
         <v>37</v>
       </c>
       <c r="G21" s="19"/>
@@ -2334,11 +2331,11 @@
       <c r="U21" s="4"/>
     </row>
     <row r="22" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B22" s="81"/>
-      <c r="C22" s="84"/>
-      <c r="D22" s="85"/>
-      <c r="E22" s="76"/>
-      <c r="F22" s="33" t="s">
+      <c r="B22" s="52"/>
+      <c r="C22" s="55"/>
+      <c r="D22" s="56"/>
+      <c r="E22" s="58"/>
+      <c r="F22" s="32" t="s">
         <v>36</v>
       </c>
       <c r="G22" s="19"/>
@@ -2358,19 +2355,19 @@
       <c r="U22" s="4"/>
     </row>
     <row r="23" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B23" s="81">
+      <c r="B23" s="52">
         <v>7</v>
       </c>
-      <c r="C23" s="82"/>
-      <c r="D23" s="83"/>
-      <c r="E23" s="75"/>
-      <c r="F23" s="33" t="s">
+      <c r="C23" s="53"/>
+      <c r="D23" s="54"/>
+      <c r="E23" s="57"/>
+      <c r="F23" s="32" t="s">
         <v>37</v>
       </c>
       <c r="G23" s="19"/>
       <c r="H23" s="19"/>
       <c r="I23" s="19"/>
-      <c r="J23" s="28"/>
+      <c r="J23" s="27"/>
       <c r="K23" s="19"/>
       <c r="L23" s="19"/>
       <c r="M23" s="19"/>
@@ -2384,11 +2381,11 @@
       <c r="U23" s="4"/>
     </row>
     <row r="24" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B24" s="81"/>
-      <c r="C24" s="84"/>
-      <c r="D24" s="85"/>
-      <c r="E24" s="76"/>
-      <c r="F24" s="33" t="s">
+      <c r="B24" s="52"/>
+      <c r="C24" s="55"/>
+      <c r="D24" s="56"/>
+      <c r="E24" s="58"/>
+      <c r="F24" s="32" t="s">
         <v>36</v>
       </c>
       <c r="G24" s="19"/>
@@ -2408,13 +2405,13 @@
       <c r="U24" s="4"/>
     </row>
     <row r="25" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B25" s="81">
+      <c r="B25" s="52">
         <v>8</v>
       </c>
-      <c r="C25" s="82"/>
-      <c r="D25" s="83"/>
-      <c r="E25" s="75"/>
-      <c r="F25" s="33" t="s">
+      <c r="C25" s="53"/>
+      <c r="D25" s="54"/>
+      <c r="E25" s="57"/>
+      <c r="F25" s="32" t="s">
         <v>37</v>
       </c>
       <c r="G25" s="19"/>
@@ -2434,11 +2431,11 @@
       <c r="U25" s="4"/>
     </row>
     <row r="26" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B26" s="81"/>
-      <c r="C26" s="84"/>
-      <c r="D26" s="85"/>
-      <c r="E26" s="76"/>
-      <c r="F26" s="33" t="s">
+      <c r="B26" s="52"/>
+      <c r="C26" s="55"/>
+      <c r="D26" s="56"/>
+      <c r="E26" s="58"/>
+      <c r="F26" s="32" t="s">
         <v>36</v>
       </c>
       <c r="G26" s="19"/>
@@ -2458,13 +2455,13 @@
       <c r="U26" s="4"/>
     </row>
     <row r="27" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B27" s="81">
+      <c r="B27" s="52">
         <v>9</v>
       </c>
-      <c r="C27" s="82"/>
-      <c r="D27" s="83"/>
-      <c r="E27" s="75"/>
-      <c r="F27" s="33" t="s">
+      <c r="C27" s="53"/>
+      <c r="D27" s="54"/>
+      <c r="E27" s="57"/>
+      <c r="F27" s="32" t="s">
         <v>37</v>
       </c>
       <c r="G27" s="19"/>
@@ -2484,11 +2481,11 @@
       <c r="U27" s="4"/>
     </row>
     <row r="28" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B28" s="81"/>
-      <c r="C28" s="84"/>
-      <c r="D28" s="85"/>
-      <c r="E28" s="76"/>
-      <c r="F28" s="33" t="s">
+      <c r="B28" s="52"/>
+      <c r="C28" s="55"/>
+      <c r="D28" s="56"/>
+      <c r="E28" s="58"/>
+      <c r="F28" s="32" t="s">
         <v>36</v>
       </c>
       <c r="G28" s="19"/>
@@ -2508,13 +2505,13 @@
       <c r="U28" s="4"/>
     </row>
     <row r="29" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B29" s="81">
+      <c r="B29" s="52">
         <v>10</v>
       </c>
-      <c r="C29" s="82"/>
-      <c r="D29" s="83"/>
-      <c r="E29" s="75"/>
-      <c r="F29" s="33" t="s">
+      <c r="C29" s="53"/>
+      <c r="D29" s="54"/>
+      <c r="E29" s="57"/>
+      <c r="F29" s="32" t="s">
         <v>37</v>
       </c>
       <c r="G29" s="19"/>
@@ -2534,11 +2531,11 @@
       <c r="U29" s="4"/>
     </row>
     <row r="30" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B30" s="81"/>
-      <c r="C30" s="84"/>
-      <c r="D30" s="85"/>
-      <c r="E30" s="76"/>
-      <c r="F30" s="33" t="s">
+      <c r="B30" s="52"/>
+      <c r="C30" s="55"/>
+      <c r="D30" s="56"/>
+      <c r="E30" s="58"/>
+      <c r="F30" s="32" t="s">
         <v>36</v>
       </c>
       <c r="G30" s="19"/>
@@ -2558,13 +2555,13 @@
       <c r="U30" s="4"/>
     </row>
     <row r="31" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B31" s="81">
+      <c r="B31" s="52">
         <v>12</v>
       </c>
-      <c r="C31" s="82"/>
-      <c r="D31" s="83"/>
-      <c r="E31" s="75"/>
-      <c r="F31" s="33" t="s">
+      <c r="C31" s="53"/>
+      <c r="D31" s="54"/>
+      <c r="E31" s="57"/>
+      <c r="F31" s="32" t="s">
         <v>37</v>
       </c>
       <c r="G31" s="19"/>
@@ -2584,11 +2581,11 @@
       <c r="U31" s="19"/>
     </row>
     <row r="32" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B32" s="81"/>
-      <c r="C32" s="84"/>
-      <c r="D32" s="85"/>
-      <c r="E32" s="76"/>
-      <c r="F32" s="33" t="s">
+      <c r="B32" s="52"/>
+      <c r="C32" s="55"/>
+      <c r="D32" s="56"/>
+      <c r="E32" s="58"/>
+      <c r="F32" s="32" t="s">
         <v>36</v>
       </c>
       <c r="G32" s="19"/>
@@ -2608,13 +2605,13 @@
       <c r="U32" s="4"/>
     </row>
     <row r="33" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B33" s="81">
+      <c r="B33" s="52">
         <v>13</v>
       </c>
-      <c r="C33" s="82"/>
-      <c r="D33" s="83"/>
-      <c r="E33" s="75"/>
-      <c r="F33" s="33" t="s">
+      <c r="C33" s="53"/>
+      <c r="D33" s="54"/>
+      <c r="E33" s="57"/>
+      <c r="F33" s="32" t="s">
         <v>37</v>
       </c>
       <c r="G33" s="19"/>
@@ -2634,11 +2631,11 @@
       <c r="U33" s="4"/>
     </row>
     <row r="34" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B34" s="81"/>
-      <c r="C34" s="84"/>
-      <c r="D34" s="85"/>
-      <c r="E34" s="76"/>
-      <c r="F34" s="33" t="s">
+      <c r="B34" s="52"/>
+      <c r="C34" s="55"/>
+      <c r="D34" s="56"/>
+      <c r="E34" s="58"/>
+      <c r="F34" s="32" t="s">
         <v>36</v>
       </c>
       <c r="G34" s="4"/>
@@ -2659,6 +2656,37 @@
     </row>
   </sheetData>
   <mergeCells count="47">
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="B2:U4"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="C9:D10"/>
+    <mergeCell ref="G9:U9"/>
+    <mergeCell ref="D6:M6"/>
+    <mergeCell ref="D7:S7"/>
+    <mergeCell ref="T6:W6"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="C15:D16"/>
+    <mergeCell ref="C17:D18"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="C33:D34"/>
+    <mergeCell ref="E33:E34"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="C25:D26"/>
+    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="C27:D28"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="C29:D30"/>
+    <mergeCell ref="E29:E30"/>
+    <mergeCell ref="C31:D32"/>
+    <mergeCell ref="E31:E32"/>
     <mergeCell ref="B21:B22"/>
     <mergeCell ref="C23:D24"/>
     <mergeCell ref="E23:E24"/>
@@ -2675,37 +2703,6 @@
     <mergeCell ref="E21:E22"/>
     <mergeCell ref="C19:D20"/>
     <mergeCell ref="C21:D22"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="C33:D34"/>
-    <mergeCell ref="E33:E34"/>
-    <mergeCell ref="B33:B34"/>
-    <mergeCell ref="C25:D26"/>
-    <mergeCell ref="E25:E26"/>
-    <mergeCell ref="C27:D28"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="E27:E28"/>
-    <mergeCell ref="C29:D30"/>
-    <mergeCell ref="E29:E30"/>
-    <mergeCell ref="C31:D32"/>
-    <mergeCell ref="E31:E32"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="C15:D16"/>
-    <mergeCell ref="C17:D18"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="B2:U4"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="C9:D10"/>
-    <mergeCell ref="G9:U9"/>
-    <mergeCell ref="D6:M6"/>
-    <mergeCell ref="D7:S7"/>
-    <mergeCell ref="T6:W6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="55" orientation="portrait" r:id="rId1"/>
@@ -2718,7 +2715,7 @@
   <dimension ref="B2:K110"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2736,40 +2733,40 @@
   <sheetData>
     <row r="2" spans="2:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="55" t="s">
+      <c r="B3" s="65" t="s">
         <v>38</v>
       </c>
-      <c r="C3" s="56"/>
-      <c r="D3" s="56"/>
-      <c r="E3" s="56"/>
-      <c r="F3" s="56"/>
-      <c r="G3" s="56"/>
-      <c r="H3" s="56"/>
-      <c r="I3" s="57"/>
+      <c r="C3" s="66"/>
+      <c r="D3" s="66"/>
+      <c r="E3" s="66"/>
+      <c r="F3" s="66"/>
+      <c r="G3" s="66"/>
+      <c r="H3" s="66"/>
+      <c r="I3" s="67"/>
       <c r="J3" s="12"/>
       <c r="K3" s="12"/>
     </row>
     <row r="4" spans="2:11" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="58"/>
-      <c r="C4" s="59"/>
-      <c r="D4" s="59"/>
-      <c r="E4" s="59"/>
-      <c r="F4" s="59"/>
-      <c r="G4" s="59"/>
-      <c r="H4" s="59"/>
-      <c r="I4" s="60"/>
+      <c r="B4" s="68"/>
+      <c r="C4" s="69"/>
+      <c r="D4" s="69"/>
+      <c r="E4" s="69"/>
+      <c r="F4" s="69"/>
+      <c r="G4" s="69"/>
+      <c r="H4" s="69"/>
+      <c r="I4" s="70"/>
       <c r="J4" s="12"/>
       <c r="K4" s="12"/>
     </row>
     <row r="5" spans="2:11" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="61"/>
-      <c r="C5" s="62"/>
-      <c r="D5" s="62"/>
-      <c r="E5" s="62"/>
-      <c r="F5" s="62"/>
-      <c r="G5" s="62"/>
-      <c r="H5" s="62"/>
-      <c r="I5" s="63"/>
+      <c r="B5" s="71"/>
+      <c r="C5" s="72"/>
+      <c r="D5" s="72"/>
+      <c r="E5" s="72"/>
+      <c r="F5" s="72"/>
+      <c r="G5" s="72"/>
+      <c r="H5" s="72"/>
+      <c r="I5" s="73"/>
       <c r="J5" s="12"/>
       <c r="K5" s="12"/>
     </row>
@@ -2804,7 +2801,7 @@
       </c>
     </row>
     <row r="9" spans="2:11" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="34">
+      <c r="B9" s="33">
         <v>1</v>
       </c>
       <c r="C9" s="16">
@@ -2828,7 +2825,7 @@
       <c r="I9" s="14"/>
     </row>
     <row r="10" spans="2:11" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="34">
+      <c r="B10" s="33">
         <v>2</v>
       </c>
       <c r="C10" s="16">
@@ -2840,7 +2837,7 @@
       <c r="E10" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="F10" s="37" t="s">
+      <c r="F10" s="36" t="s">
         <v>65</v>
       </c>
       <c r="G10" s="22" t="s">
@@ -2852,7 +2849,7 @@
       <c r="I10" s="14"/>
     </row>
     <row r="11" spans="2:11" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="34">
+      <c r="B11" s="33">
         <v>3</v>
       </c>
       <c r="C11" s="16">
@@ -2864,10 +2861,10 @@
       <c r="E11" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="F11" s="37" t="s">
+      <c r="F11" s="36" t="s">
         <v>66</v>
       </c>
-      <c r="G11" s="86" t="s">
+      <c r="G11" s="37" t="s">
         <v>64</v>
       </c>
       <c r="H11" s="18" t="s">
@@ -2876,7 +2873,7 @@
       <c r="I11" s="14"/>
     </row>
     <row r="12" spans="2:11" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="34">
+      <c r="B12" s="33">
         <v>4</v>
       </c>
       <c r="C12" s="16">
@@ -2888,10 +2885,10 @@
       <c r="E12" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="F12" s="37" t="s">
+      <c r="F12" s="36" t="s">
         <v>67</v>
       </c>
-      <c r="G12" s="86" t="s">
+      <c r="G12" s="37" t="s">
         <v>59</v>
       </c>
       <c r="H12" s="18" t="s">
@@ -2900,7 +2897,7 @@
       <c r="I12" s="14"/>
     </row>
     <row r="13" spans="2:11" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="34">
+      <c r="B13" s="33">
         <v>5</v>
       </c>
       <c r="C13" s="16">
@@ -2912,10 +2909,10 @@
       <c r="E13" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="F13" s="37" t="s">
+      <c r="F13" s="36" t="s">
         <v>69</v>
       </c>
-      <c r="G13" s="86" t="s">
+      <c r="G13" s="37" t="s">
         <v>57</v>
       </c>
       <c r="H13" s="18" t="s">
@@ -2924,7 +2921,7 @@
       <c r="I13" s="14"/>
     </row>
     <row r="14" spans="2:11" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="34">
+      <c r="B14" s="33">
         <v>6</v>
       </c>
       <c r="C14" s="16"/>
@@ -2936,7 +2933,7 @@
       <c r="I14" s="14"/>
     </row>
     <row r="15" spans="2:11" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="34">
+      <c r="B15" s="33">
         <v>7</v>
       </c>
       <c r="C15" s="16"/>
@@ -2948,7 +2945,7 @@
       <c r="I15" s="14"/>
     </row>
     <row r="16" spans="2:11" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="34">
+      <c r="B16" s="33">
         <v>8</v>
       </c>
       <c r="C16" s="16"/>
@@ -2960,7 +2957,7 @@
       <c r="I16" s="14"/>
     </row>
     <row r="17" spans="2:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="34">
+      <c r="B17" s="33">
         <v>9</v>
       </c>
       <c r="C17" s="16"/>
@@ -2972,7 +2969,7 @@
       <c r="I17" s="14"/>
     </row>
     <row r="18" spans="2:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="34">
+      <c r="B18" s="33">
         <v>10</v>
       </c>
       <c r="C18" s="16"/>
@@ -2984,7 +2981,7 @@
       <c r="I18" s="14"/>
     </row>
     <row r="19" spans="2:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="34">
+      <c r="B19" s="33">
         <v>11</v>
       </c>
       <c r="C19" s="16"/>
@@ -2996,7 +2993,7 @@
       <c r="I19" s="14"/>
     </row>
     <row r="20" spans="2:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="34">
+      <c r="B20" s="33">
         <v>12</v>
       </c>
       <c r="C20" s="16"/>
@@ -3008,7 +3005,7 @@
       <c r="I20" s="14"/>
     </row>
     <row r="21" spans="2:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="34">
+      <c r="B21" s="33">
         <v>13</v>
       </c>
       <c r="C21" s="16"/>
@@ -3020,7 +3017,7 @@
       <c r="I21" s="14"/>
     </row>
     <row r="22" spans="2:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="34">
+      <c r="B22" s="33">
         <v>14</v>
       </c>
       <c r="C22" s="16"/>
@@ -3032,7 +3029,7 @@
       <c r="I22" s="14"/>
     </row>
     <row r="23" spans="2:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="34">
+      <c r="B23" s="33">
         <v>15</v>
       </c>
       <c r="C23" s="16"/>
